--- a/src/main/resources/template/emp_worksheet.xlsx
+++ b/src/main/resources/template/emp_worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nohi/work/workspaces-nohi/demo/nohi-dd-miniprogram-server/src/main/resources/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A72F21D2-F11B-8349-A3C6-4C02ED8910B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85268705-5389-674E-85FE-F43C1D773F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:AG6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.1640625" defaultRowHeight="15"/>
